--- a/data/trans_camb/P25_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_6-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,34</t>
+          <t>-3,29; 5,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,23</t>
+          <t>-4,65; 3,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,12</t>
+          <t>-3,85; 5,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,63</t>
+          <t>-4,08; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,66</t>
+          <t>-6,05; 2,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,21</t>
+          <t>-3,29; 6,69</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 3,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 1,66</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 4,55</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,7%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>-26,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-24,96%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 130,64</t>
+          <t>-59,62; 326,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 72,39</t>
+          <t>-76,04; 204,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 207,34</t>
+          <t>-64,88; 285,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 154,5</t>
+          <t>-55,83; 159,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 111,22</t>
+          <t>-76,56; 99,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 68,3</t>
+          <t>-48,32; 205,73</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,14; 113,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-69,28; 55,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-40,16; 140,8</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 2,76</t>
+          <t>-13,59; 2,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,67</t>
+          <t>-10,43; 6,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,71</t>
+          <t>-9,42; 9,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,94</t>
+          <t>-4,69; 4,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,19</t>
+          <t>-3,64; 5,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,67</t>
+          <t>-2,91; 8,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 2,3</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 4,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 6,22</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,56%</t>
+          <t>-40,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,82%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,27%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,44%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-25,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 93,6</t>
+          <t>-92,57; 96,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 134,09</t>
+          <t>-87,98; 287,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,92; 64,43</t>
+          <t>-85,68; 314,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 183,45</t>
+          <t>-76,01; 276,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 33,86</t>
+          <t>-63,66; 285,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 96,79</t>
+          <t>-55,99; 437,7</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-72,75; 73,71</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-63,86; 155,91</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-58,69; 176,41</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>11,22</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 6,22</t>
+          <t>-18,44; 6,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 2,65</t>
+          <t>-17,61; 8,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 10,92</t>
+          <t>-14,26; 18,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 12,11</t>
+          <t>0,0; 18,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 6,3</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 4,36</t>
+          <t>2,01; 27,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 7,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 6,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 17,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,76%</t>
+          <t>-52,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-58,77%</t>
+          <t>-45,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>202,44%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>257,36%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-12,8%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>170,31%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,45; 122,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 196,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,94; 131,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 2,0</t>
+          <t>-5,66; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,29</t>
+          <t>-5,48; 2,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,76</t>
+          <t>-4,46; 5,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,45</t>
+          <t>-2,03; 3,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,67</t>
+          <t>-3,06; 2,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,61</t>
+          <t>-0,67; 6,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 2,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 2,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 4,43</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>-19,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-24,88%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>60,57%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-13,53%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 41,13</t>
+          <t>-66,39; 66,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,26; 29,2</t>
+          <t>-66,93; 87,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 89,46</t>
+          <t>-54,79; 145,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 115,72</t>
+          <t>-36,41; 133,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 42,13</t>
+          <t>-56,3; 109,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 38,83</t>
+          <t>-14,86; 210,41</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-42,93; 62,34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 57,64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-21,51; 123,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
